--- a/Team-Data/2009-10/6-5-2009-10.xlsx
+++ b/Team-Data/2009-10/6-5-2009-10.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,37 +733,37 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2" t="n">
         <v>29</v>
       </c>
       <c r="G2" t="n">
-        <v>0.642</v>
+        <v>0.646</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
       </c>
       <c r="I2" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="J2" t="n">
         <v>82.90000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.467</v>
+        <v>0.468</v>
       </c>
       <c r="L2" t="n">
         <v>6.4</v>
       </c>
       <c r="M2" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0.358</v>
+        <v>0.36</v>
       </c>
       <c r="O2" t="n">
         <v>17.7</v>
@@ -708,22 +775,22 @@
         <v>0.759</v>
       </c>
       <c r="R2" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S2" t="n">
         <v>29.9</v>
       </c>
       <c r="T2" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U2" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V2" t="n">
         <v>12</v>
       </c>
       <c r="W2" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X2" t="n">
         <v>5</v>
@@ -732,34 +799,34 @@
         <v>4.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.5</v>
+        <v>101.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH2" t="n">
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ2" t="n">
         <v>12</v>
@@ -774,10 +841,10 @@
         <v>15</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
@@ -786,13 +853,13 @@
         <v>15</v>
       </c>
       <c r="AR2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AS2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AU2" t="n">
         <v>12</v>
@@ -801,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="AW2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX2" t="n">
         <v>14</v>
@@ -810,13 +877,13 @@
         <v>7</v>
       </c>
       <c r="AZ2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA2" t="n">
         <v>28</v>
       </c>
       <c r="BB2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC2" t="n">
         <v>7</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>6-5-2009-10</t>
+          <t>2010-06-05</t>
         </is>
       </c>
     </row>
@@ -848,55 +915,55 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E3" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
         <v>32</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="H3" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I3" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J3" t="n">
         <v>76.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0.484</v>
+        <v>0.483</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M3" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.346</v>
+        <v>0.348</v>
       </c>
       <c r="O3" t="n">
         <v>19</v>
       </c>
       <c r="P3" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.744</v>
+        <v>0.746</v>
       </c>
       <c r="R3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T3" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="U3" t="n">
         <v>23.5</v>
@@ -908,7 +975,7 @@
         <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
@@ -920,22 +987,22 @@
         <v>21.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.40000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AF3" t="n">
         <v>9</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AH3" t="n">
         <v>17</v>
@@ -950,22 +1017,22 @@
         <v>4</v>
       </c>
       <c r="AL3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN3" t="n">
         <v>17</v>
       </c>
-      <c r="AM3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>19</v>
-      </c>
       <c r="AO3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP3" t="n">
         <v>10</v>
       </c>
       <c r="AQ3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
@@ -986,13 +1053,13 @@
         <v>2</v>
       </c>
       <c r="AX3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA3" t="n">
         <v>8</v>
@@ -1001,7 +1068,7 @@
         <v>19</v>
       </c>
       <c r="BC3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>6-5-2009-10</t>
+          <t>2010-06-05</t>
         </is>
       </c>
     </row>
@@ -1030,37 +1097,37 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E4" t="n">
         <v>44</v>
       </c>
       <c r="F4" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" t="n">
-        <v>0.543</v>
+        <v>0.537</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="J4" t="n">
         <v>76.90000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.455</v>
+        <v>0.453</v>
       </c>
       <c r="L4" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M4" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.348</v>
+        <v>0.346</v>
       </c>
       <c r="O4" t="n">
         <v>20</v>
@@ -1069,19 +1136,19 @@
         <v>26.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.754</v>
+        <v>0.751</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S4" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T4" t="n">
         <v>40.8</v>
       </c>
       <c r="U4" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V4" t="n">
         <v>15.7</v>
@@ -1090,25 +1157,25 @@
         <v>7.7</v>
       </c>
       <c r="X4" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y4" t="n">
         <v>6.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA4" t="n">
         <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.7</v>
+        <v>95.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
@@ -1129,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
         <v>22</v>
@@ -1138,19 +1205,19 @@
         <v>22</v>
       </c>
       <c r="AN4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AO4" t="n">
         <v>4</v>
       </c>
       <c r="AP4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS4" t="n">
         <v>19</v>
@@ -1168,22 +1235,22 @@
         <v>8</v>
       </c>
       <c r="AX4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA4" t="n">
         <v>6</v>
       </c>
       <c r="BB4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>6-5-2009-10</t>
+          <t>2010-06-05</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
@@ -1302,13 +1369,13 @@
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI5" t="n">
         <v>18</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
         <v>23</v>
@@ -1344,16 +1411,16 @@
         <v>19</v>
       </c>
       <c r="AV5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX5" t="n">
         <v>2</v>
       </c>
       <c r="AY5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
         <v>11</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>6-5-2009-10</t>
+          <t>2010-06-05</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E6" t="n">
         <v>61</v>
       </c>
       <c r="F6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" t="n">
-        <v>0.763</v>
+        <v>0.744</v>
       </c>
       <c r="H6" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>38</v>
+        <v>37.8</v>
       </c>
       <c r="J6" t="n">
-        <v>78</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.488</v>
+        <v>0.485</v>
       </c>
       <c r="L6" t="n">
         <v>7.3</v>
@@ -1424,28 +1491,28 @@
         <v>19.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="O6" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P6" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="Q6" t="n">
         <v>0.72</v>
       </c>
       <c r="R6" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="S6" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T6" t="n">
         <v>42.5</v>
       </c>
       <c r="U6" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V6" t="n">
         <v>13.9</v>
@@ -1457,22 +1524,22 @@
         <v>5.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.4</v>
+        <v>102.1</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1487,10 +1554,10 @@
         <v>17</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK6" t="n">
         <v>3</v>
@@ -1505,10 +1572,10 @@
         <v>2</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AQ6" t="n">
         <v>30</v>
@@ -1523,10 +1590,10 @@
         <v>11</v>
       </c>
       <c r="AU6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW6" t="n">
         <v>21</v>
@@ -1541,7 +1608,7 @@
         <v>3</v>
       </c>
       <c r="BA6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB6" t="n">
         <v>9</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>6-5-2009-10</t>
+          <t>2010-06-05</t>
         </is>
       </c>
     </row>
@@ -1576,28 +1643,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E7" t="n">
         <v>55</v>
       </c>
       <c r="F7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" t="n">
-        <v>0.679</v>
+        <v>0.671</v>
       </c>
       <c r="H7" t="n">
         <v>48.5</v>
       </c>
       <c r="I7" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J7" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L7" t="n">
         <v>6.8</v>
@@ -1606,13 +1673,13 @@
         <v>18.3</v>
       </c>
       <c r="N7" t="n">
-        <v>0.374</v>
+        <v>0.372</v>
       </c>
       <c r="O7" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P7" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q7" t="n">
         <v>0.8159999999999999</v>
@@ -1627,34 +1694,34 @@
         <v>41.7</v>
       </c>
       <c r="U7" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V7" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W7" t="n">
         <v>7.6</v>
       </c>
       <c r="X7" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y7" t="n">
         <v>4.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA7" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB7" t="n">
-        <v>102.1</v>
+        <v>102</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>4</v>
@@ -1669,7 +1736,7 @@
         <v>5</v>
       </c>
       <c r="AI7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ7" t="n">
         <v>14</v>
@@ -1684,13 +1751,13 @@
         <v>13</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO7" t="n">
         <v>16</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -1714,7 +1781,7 @@
         <v>10</v>
       </c>
       <c r="AX7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY7" t="n">
         <v>5</v>
@@ -1723,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="BA7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB7" t="n">
         <v>11</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>6-5-2009-10</t>
+          <t>2010-06-05</t>
         </is>
       </c>
     </row>
@@ -1758,37 +1825,37 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E8" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F8" t="n">
         <v>29</v>
       </c>
       <c r="G8" t="n">
-        <v>0.642</v>
+        <v>0.646</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
       </c>
       <c r="I8" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J8" t="n">
-        <v>81.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K8" t="n">
         <v>0.468</v>
       </c>
       <c r="L8" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M8" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="N8" t="n">
-        <v>0.358</v>
+        <v>0.359</v>
       </c>
       <c r="O8" t="n">
         <v>23.6</v>
@@ -1803,7 +1870,7 @@
         <v>10.8</v>
       </c>
       <c r="S8" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T8" t="n">
         <v>41.4</v>
@@ -1815,13 +1882,13 @@
         <v>13.9</v>
       </c>
       <c r="W8" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X8" t="n">
         <v>5.1</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z8" t="n">
         <v>22.5</v>
@@ -1830,28 +1897,28 @@
         <v>23.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.4</v>
+        <v>106.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
         <v>17</v>
@@ -1866,7 +1933,7 @@
         <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1878,10 +1945,10 @@
         <v>9</v>
       </c>
       <c r="AR8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT8" t="n">
         <v>20</v>
@@ -1890,7 +1957,7 @@
         <v>18</v>
       </c>
       <c r="AV8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW8" t="n">
         <v>3</v>
@@ -1899,7 +1966,7 @@
         <v>13</v>
       </c>
       <c r="AY8" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ8" t="n">
         <v>27</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>6-5-2009-10</t>
+          <t>2010-06-05</t>
         </is>
       </c>
     </row>
@@ -1940,49 +2007,49 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" t="n">
         <v>55</v>
       </c>
       <c r="G9" t="n">
-        <v>0.321</v>
+        <v>0.329</v>
       </c>
       <c r="H9" t="n">
         <v>48.2</v>
       </c>
       <c r="I9" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J9" t="n">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K9" t="n">
         <v>0.445</v>
       </c>
       <c r="L9" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="M9" t="n">
         <v>14.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.313</v>
+        <v>0.314</v>
       </c>
       <c r="O9" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P9" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.731</v>
+        <v>0.728</v>
       </c>
       <c r="R9" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="S9" t="n">
         <v>27.3</v>
@@ -1994,7 +2061,7 @@
         <v>19.4</v>
       </c>
       <c r="V9" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W9" t="n">
         <v>7.3</v>
@@ -2009,28 +2076,28 @@
         <v>22.2</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB9" t="n">
         <v>94</v>
       </c>
       <c r="AC9" t="n">
-        <v>-5.4</v>
+        <v>-5.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
         <v>28</v>
@@ -2045,7 +2112,7 @@
         <v>28</v>
       </c>
       <c r="AM9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN9" t="n">
         <v>30</v>
@@ -2066,16 +2133,16 @@
         <v>30</v>
       </c>
       <c r="AT9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU9" t="n">
         <v>26</v>
       </c>
       <c r="AV9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX9" t="n">
         <v>27</v>
@@ -2087,7 +2154,7 @@
         <v>24</v>
       </c>
       <c r="BA9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB9" t="n">
         <v>29</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>6-5-2009-10</t>
+          <t>2010-06-05</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E10" t="n">
         <v>26</v>
       </c>
       <c r="F10" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10" t="n">
-        <v>0.321</v>
+        <v>0.317</v>
       </c>
       <c r="H10" t="n">
         <v>48.1</v>
@@ -2146,25 +2213,25 @@
         <v>0.469</v>
       </c>
       <c r="L10" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M10" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="N10" t="n">
         <v>0.375</v>
       </c>
       <c r="O10" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="P10" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.784</v>
+        <v>0.782</v>
       </c>
       <c r="R10" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S10" t="n">
         <v>29.2</v>
@@ -2185,7 +2252,7 @@
         <v>4.1</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z10" t="n">
         <v>23</v>
@@ -2200,16 +2267,16 @@
         <v>-3.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH10" t="n">
         <v>26</v>
@@ -2230,7 +2297,7 @@
         <v>7</v>
       </c>
       <c r="AN10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
         <v>5</v>
@@ -2239,7 +2306,7 @@
         <v>11</v>
       </c>
       <c r="AQ10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR10" t="n">
         <v>29</v>
@@ -2251,7 +2318,7 @@
         <v>30</v>
       </c>
       <c r="AU10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV10" t="n">
         <v>19</v>
@@ -2275,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="BC10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>6-5-2009-10</t>
+          <t>2010-06-05</t>
         </is>
       </c>
     </row>
@@ -2304,28 +2371,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E11" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" t="n">
-        <v>0.513</v>
+        <v>0.512</v>
       </c>
       <c r="H11" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I11" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J11" t="n">
-        <v>84.5</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L11" t="n">
         <v>7.9</v>
@@ -2346,43 +2413,43 @@
         <v>0.772</v>
       </c>
       <c r="R11" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S11" t="n">
-        <v>30.3</v>
+        <v>30.1</v>
       </c>
       <c r="T11" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U11" t="n">
         <v>21.8</v>
       </c>
       <c r="V11" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W11" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X11" t="n">
         <v>3.9</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA11" t="n">
         <v>22.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>102.5</v>
+        <v>102.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>16</v>
@@ -2406,7 +2473,7 @@
         <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM11" t="n">
         <v>4</v>
@@ -2415,7 +2482,7 @@
         <v>15</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP11" t="n">
         <v>13</v>
@@ -2427,7 +2494,7 @@
         <v>5</v>
       </c>
       <c r="AS11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT11" t="n">
         <v>13</v>
@@ -2439,7 +2506,7 @@
         <v>17</v>
       </c>
       <c r="AW11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AX11" t="n">
         <v>26</v>
@@ -2448,7 +2515,7 @@
         <v>30</v>
       </c>
       <c r="AZ11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA11" t="n">
         <v>2</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>6-5-2009-10</t>
+          <t>2010-06-05</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E12" t="n">
         <v>32</v>
       </c>
       <c r="F12" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G12" t="n">
-        <v>0.395</v>
+        <v>0.39</v>
       </c>
       <c r="H12" t="n">
         <v>48.1</v>
@@ -2504,28 +2571,28 @@
         <v>36.8</v>
       </c>
       <c r="J12" t="n">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L12" t="n">
         <v>8</v>
       </c>
       <c r="M12" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.346</v>
+        <v>0.348</v>
       </c>
       <c r="O12" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P12" t="n">
         <v>24.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.774</v>
+        <v>0.775</v>
       </c>
       <c r="R12" t="n">
         <v>9.6</v>
@@ -2540,10 +2607,10 @@
         <v>21.1</v>
       </c>
       <c r="V12" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W12" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X12" t="n">
         <v>5.4</v>
@@ -2558,13 +2625,13 @@
         <v>20.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.9</v>
+        <v>-3</v>
       </c>
       <c r="AD12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2576,13 +2643,13 @@
         <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI12" t="n">
         <v>22</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
         <v>28</v>
@@ -2594,10 +2661,10 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP12" t="n">
         <v>14</v>
@@ -2609,25 +2676,25 @@
         <v>28</v>
       </c>
       <c r="AS12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT12" t="n">
         <v>19</v>
       </c>
       <c r="AU12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV12" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AW12" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AX12" t="n">
         <v>8</v>
       </c>
       <c r="AY12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ12" t="n">
         <v>28</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>6-5-2009-10</t>
+          <t>2010-06-05</t>
         </is>
       </c>
     </row>
@@ -2668,46 +2735,46 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E13" t="n">
         <v>29</v>
       </c>
       <c r="F13" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G13" t="n">
-        <v>0.363</v>
+        <v>0.354</v>
       </c>
       <c r="H13" t="n">
         <v>48.1</v>
       </c>
       <c r="I13" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J13" t="n">
         <v>80.5</v>
       </c>
       <c r="K13" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L13" t="n">
         <v>5.9</v>
       </c>
       <c r="M13" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="N13" t="n">
         <v>0.332</v>
       </c>
       <c r="O13" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P13" t="n">
         <v>22.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.732</v>
+        <v>0.73</v>
       </c>
       <c r="R13" t="n">
         <v>11.3</v>
@@ -2719,13 +2786,13 @@
         <v>41.8</v>
       </c>
       <c r="U13" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V13" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W13" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X13" t="n">
         <v>5.7</v>
@@ -2734,19 +2801,19 @@
         <v>4.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="AA13" t="n">
         <v>19.4</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.59999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="AC13" t="n">
         <v>-6.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
         <v>22</v>
@@ -2767,7 +2834,7 @@
         <v>22</v>
       </c>
       <c r="AK13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL13" t="n">
         <v>19</v>
@@ -2779,10 +2846,10 @@
         <v>27</v>
       </c>
       <c r="AO13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ13" t="n">
         <v>26</v>
@@ -2791,25 +2858,25 @@
         <v>13</v>
       </c>
       <c r="AS13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AU13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV13" t="n">
         <v>28</v>
       </c>
       <c r="AW13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX13" t="n">
         <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ13" t="n">
         <v>2</v>
@@ -2818,7 +2885,7 @@
         <v>27</v>
       </c>
       <c r="BB13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC13" t="n">
         <v>28</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>6-5-2009-10</t>
+          <t>2010-06-05</t>
         </is>
       </c>
     </row>
@@ -2850,49 +2917,49 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E14" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F14" t="n">
         <v>25</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.695</v>
       </c>
       <c r="H14" t="n">
         <v>48.4</v>
       </c>
       <c r="I14" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J14" t="n">
         <v>83.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L14" t="n">
         <v>6.5</v>
       </c>
       <c r="M14" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="N14" t="n">
-        <v>0.342</v>
+        <v>0.341</v>
       </c>
       <c r="O14" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P14" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.767</v>
+        <v>0.765</v>
       </c>
       <c r="R14" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S14" t="n">
         <v>32.5</v>
@@ -2904,10 +2971,10 @@
         <v>21.1</v>
       </c>
       <c r="V14" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W14" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X14" t="n">
         <v>4.9</v>
@@ -2916,10 +2983,10 @@
         <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB14" t="n">
         <v>101.7</v>
@@ -2928,7 +2995,7 @@
         <v>4.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2943,13 +3010,13 @@
         <v>12</v>
       </c>
       <c r="AI14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ14" t="n">
         <v>7</v>
       </c>
       <c r="AK14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL14" t="n">
         <v>13</v>
@@ -2964,13 +3031,13 @@
         <v>17</v>
       </c>
       <c r="AP14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ14" t="n">
         <v>12</v>
       </c>
       <c r="AR14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AS14" t="n">
         <v>4</v>
@@ -2988,13 +3055,13 @@
         <v>11</v>
       </c>
       <c r="AX14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA14" t="n">
         <v>12</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>6-5-2009-10</t>
+          <t>2010-06-05</t>
         </is>
       </c>
     </row>
@@ -3032,28 +3099,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E15" t="n">
         <v>40</v>
       </c>
       <c r="F15" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G15" t="n">
-        <v>0.494</v>
+        <v>0.488</v>
       </c>
       <c r="H15" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I15" t="n">
-        <v>39.5</v>
+        <v>39.3</v>
       </c>
       <c r="J15" t="n">
-        <v>84</v>
+        <v>83.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0.47</v>
+        <v>0.469</v>
       </c>
       <c r="L15" t="n">
         <v>4.2</v>
@@ -3062,16 +3129,16 @@
         <v>12.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.339</v>
+        <v>0.337</v>
       </c>
       <c r="O15" t="n">
         <v>19.7</v>
       </c>
       <c r="P15" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.734</v>
+        <v>0.733</v>
       </c>
       <c r="R15" t="n">
         <v>13</v>
@@ -3080,10 +3147,10 @@
         <v>30.4</v>
       </c>
       <c r="T15" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U15" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="V15" t="n">
         <v>15.2</v>
@@ -3098,40 +3165,40 @@
         <v>6.1</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA15" t="n">
         <v>22.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.8</v>
+        <v>102.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>-1.3</v>
+        <v>-1.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
         <v>18</v>
       </c>
       <c r="AF15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG15" t="n">
         <v>18</v>
       </c>
       <c r="AH15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL15" t="n">
         <v>30</v>
@@ -3140,10 +3207,10 @@
         <v>30</v>
       </c>
       <c r="AN15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP15" t="n">
         <v>4</v>
@@ -3161,7 +3228,7 @@
         <v>4</v>
       </c>
       <c r="AU15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV15" t="n">
         <v>27</v>
@@ -3170,19 +3237,19 @@
         <v>7</v>
       </c>
       <c r="AX15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AY15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ15" t="n">
         <v>12</v>
       </c>
       <c r="BA15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC15" t="n">
         <v>17</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>6-5-2009-10</t>
+          <t>2010-06-05</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E16" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16" t="n">
         <v>35</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.573</v>
       </c>
       <c r="H16" t="n">
         <v>48.5</v>
       </c>
       <c r="I16" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J16" t="n">
-        <v>79.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="K16" t="n">
-        <v>0.456</v>
+        <v>0.458</v>
       </c>
       <c r="L16" t="n">
         <v>6</v>
@@ -3244,16 +3311,16 @@
         <v>17.4</v>
       </c>
       <c r="N16" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O16" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P16" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.751</v>
+        <v>0.752</v>
       </c>
       <c r="R16" t="n">
         <v>10.7</v>
@@ -3268,7 +3335,7 @@
         <v>18.9</v>
       </c>
       <c r="V16" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W16" t="n">
         <v>7.4</v>
@@ -3286,13 +3353,13 @@
         <v>20</v>
       </c>
       <c r="AB16" t="n">
-        <v>96.3</v>
+        <v>96.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
@@ -3307,22 +3374,22 @@
         <v>5</v>
       </c>
       <c r="AI16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ16" t="n">
         <v>25</v>
       </c>
       <c r="AK16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN16" t="n">
         <v>19</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>21</v>
       </c>
       <c r="AO16" t="n">
         <v>21</v>
@@ -3331,7 +3398,7 @@
         <v>21</v>
       </c>
       <c r="AQ16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR16" t="n">
         <v>19</v>
@@ -3340,16 +3407,16 @@
         <v>13</v>
       </c>
       <c r="AT16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV16" t="n">
         <v>4</v>
       </c>
       <c r="AW16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX16" t="n">
         <v>4</v>
@@ -3358,7 +3425,7 @@
         <v>6</v>
       </c>
       <c r="AZ16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA16" t="n">
         <v>25</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>6-5-2009-10</t>
+          <t>2010-06-05</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3544,7 @@
         <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF17" t="n">
         <v>14</v>
@@ -3498,7 +3565,7 @@
         <v>29</v>
       </c>
       <c r="AL17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM17" t="n">
         <v>5</v>
@@ -3531,10 +3598,10 @@
         <v>5</v>
       </c>
       <c r="AW17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY17" t="n">
         <v>21</v>
@@ -3546,10 +3613,10 @@
         <v>20</v>
       </c>
       <c r="BB17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>6-5-2009-10</t>
+          <t>2010-06-05</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" t="n">
         <v>67</v>
       </c>
       <c r="G18" t="n">
-        <v>0.173</v>
+        <v>0.183</v>
       </c>
       <c r="H18" t="n">
         <v>48.2</v>
@@ -3596,25 +3663,25 @@
         <v>37.9</v>
       </c>
       <c r="J18" t="n">
-        <v>84.3</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M18" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.342</v>
+        <v>0.341</v>
       </c>
       <c r="O18" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P18" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="Q18" t="n">
         <v>0.746</v>
@@ -3626,37 +3693,37 @@
         <v>31.2</v>
       </c>
       <c r="T18" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U18" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V18" t="n">
         <v>16.3</v>
       </c>
       <c r="W18" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X18" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z18" t="n">
         <v>20.7</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB18" t="n">
         <v>98.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3668,22 +3735,22 @@
         <v>29</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL18" t="n">
         <v>26</v>
       </c>
       <c r="AM18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN18" t="n">
         <v>23</v>
@@ -3695,10 +3762,10 @@
         <v>22</v>
       </c>
       <c r="AQ18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS18" t="n">
         <v>12</v>
@@ -3713,19 +3780,19 @@
         <v>30</v>
       </c>
       <c r="AW18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX18" t="n">
         <v>28</v>
       </c>
       <c r="AY18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ18" t="n">
         <v>15</v>
       </c>
       <c r="BA18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB18" t="n">
         <v>20</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>6-5-2009-10</t>
+          <t>2010-06-05</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E19" t="n">
         <v>12</v>
       </c>
       <c r="F19" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G19" t="n">
-        <v>0.148</v>
+        <v>0.146</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3784,61 +3851,61 @@
         <v>0.429</v>
       </c>
       <c r="L19" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="M19" t="n">
         <v>14.5</v>
       </c>
       <c r="N19" t="n">
-        <v>0.32</v>
+        <v>0.318</v>
       </c>
       <c r="O19" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P19" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.779</v>
+        <v>0.78</v>
       </c>
       <c r="R19" t="n">
         <v>10.9</v>
       </c>
       <c r="S19" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="T19" t="n">
-        <v>39.5</v>
+        <v>39.7</v>
       </c>
       <c r="U19" t="n">
         <v>18.8</v>
       </c>
       <c r="V19" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W19" t="n">
         <v>7</v>
       </c>
       <c r="X19" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z19" t="n">
         <v>20</v>
       </c>
       <c r="AA19" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB19" t="n">
         <v>92.40000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-9.199999999999999</v>
+        <v>-9.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
         <v>30</v>
@@ -3850,7 +3917,7 @@
         <v>30</v>
       </c>
       <c r="AH19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3865,7 +3932,7 @@
         <v>27</v>
       </c>
       <c r="AM19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN19" t="n">
         <v>29</v>
@@ -3877,7 +3944,7 @@
         <v>15</v>
       </c>
       <c r="AQ19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR19" t="n">
         <v>16</v>
@@ -3892,22 +3959,22 @@
         <v>30</v>
       </c>
       <c r="AV19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX19" t="n">
         <v>19</v>
       </c>
       <c r="AY19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB19" t="n">
         <v>30</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>6-5-2009-10</t>
+          <t>2010-06-05</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E20" t="n">
         <v>37</v>
       </c>
       <c r="F20" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G20" t="n">
-        <v>0.457</v>
+        <v>0.451</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3960,7 +4027,7 @@
         <v>38.8</v>
       </c>
       <c r="J20" t="n">
-        <v>83.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K20" t="n">
         <v>0.464</v>
@@ -3969,37 +4036,37 @@
         <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O20" t="n">
         <v>15.8</v>
       </c>
       <c r="P20" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.781</v>
+        <v>0.778</v>
       </c>
       <c r="R20" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S20" t="n">
         <v>29.9</v>
       </c>
       <c r="T20" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U20" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V20" t="n">
         <v>13.5</v>
       </c>
       <c r="W20" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X20" t="n">
         <v>3.7</v>
@@ -4011,16 +4078,16 @@
         <v>19.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>-2.3</v>
+        <v>-2.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
@@ -4035,7 +4102,7 @@
         <v>12</v>
       </c>
       <c r="AI20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ20" t="n">
         <v>9</v>
@@ -4050,7 +4117,7 @@
         <v>9</v>
       </c>
       <c r="AN20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO20" t="n">
         <v>29</v>
@@ -4059,19 +4126,19 @@
         <v>30</v>
       </c>
       <c r="AQ20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV20" t="n">
         <v>9</v>
@@ -4083,7 +4150,7 @@
         <v>30</v>
       </c>
       <c r="AY20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ20" t="n">
         <v>6</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>6-5-2009-10</t>
+          <t>2010-06-05</t>
         </is>
       </c>
     </row>
@@ -4124,37 +4191,37 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E21" t="n">
         <v>29</v>
       </c>
       <c r="F21" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G21" t="n">
-        <v>0.358</v>
+        <v>0.354</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J21" t="n">
-        <v>83.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L21" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="M21" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.348</v>
+        <v>0.346</v>
       </c>
       <c r="O21" t="n">
         <v>16.8</v>
@@ -4196,22 +4263,22 @@
         <v>19.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3.6</v>
+        <v>-3.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
       </c>
       <c r="AF21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH21" t="n">
         <v>5</v>
@@ -4220,10 +4287,10 @@
         <v>12</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AK21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL21" t="n">
         <v>2</v>
@@ -4232,7 +4299,7 @@
         <v>2</v>
       </c>
       <c r="AN21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO21" t="n">
         <v>26</v>
@@ -4241,13 +4308,13 @@
         <v>28</v>
       </c>
       <c r="AQ21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR21" t="n">
         <v>23</v>
       </c>
       <c r="AS21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT21" t="n">
         <v>23</v>
@@ -4265,19 +4332,19 @@
         <v>29</v>
       </c>
       <c r="AY21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>6-5-2009-10</t>
+          <t>2010-06-05</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E22" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F22" t="n">
         <v>32</v>
       </c>
       <c r="G22" t="n">
-        <v>0.605</v>
+        <v>0.61</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J22" t="n">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="K22" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L22" t="n">
         <v>5.1</v>
@@ -4336,10 +4403,10 @@
         <v>15</v>
       </c>
       <c r="N22" t="n">
-        <v>0.337</v>
+        <v>0.34</v>
       </c>
       <c r="O22" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="P22" t="n">
         <v>27</v>
@@ -4348,7 +4415,7 @@
         <v>0.805</v>
       </c>
       <c r="R22" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S22" t="n">
         <v>31.8</v>
@@ -4381,10 +4448,10 @@
         <v>101.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
         <v>9</v>
@@ -4414,7 +4481,7 @@
         <v>23</v>
       </c>
       <c r="AN22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO22" t="n">
         <v>2</v>
@@ -4426,7 +4493,7 @@
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS22" t="n">
         <v>8</v>
@@ -4447,19 +4514,19 @@
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA22" t="n">
         <v>11</v>
       </c>
       <c r="BB22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>6-5-2009-10</t>
+          <t>2010-06-05</t>
         </is>
       </c>
     </row>
@@ -4488,46 +4555,46 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E23" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" t="n">
         <v>23</v>
       </c>
       <c r="G23" t="n">
-        <v>0.716</v>
+        <v>0.72</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J23" t="n">
-        <v>77.90000000000001</v>
+        <v>78</v>
       </c>
       <c r="K23" t="n">
-        <v>0.469</v>
+        <v>0.47</v>
       </c>
       <c r="L23" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="M23" t="n">
         <v>27.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.373</v>
+        <v>0.375</v>
       </c>
       <c r="O23" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="P23" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.723</v>
+        <v>0.724</v>
       </c>
       <c r="R23" t="n">
         <v>9.9</v>
@@ -4536,16 +4603,16 @@
         <v>33.4</v>
       </c>
       <c r="T23" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U23" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="V23" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W23" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X23" t="n">
         <v>5.6</v>
@@ -4560,13 +4627,13 @@
         <v>22.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>102.5</v>
+        <v>102.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>2</v>
@@ -4584,10 +4651,10 @@
         <v>24</v>
       </c>
       <c r="AJ23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4596,13 +4663,13 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO23" t="n">
         <v>10</v>
       </c>
       <c r="AP23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AQ23" t="n">
         <v>29</v>
@@ -4632,13 +4699,13 @@
         <v>1</v>
       </c>
       <c r="AZ23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA23" t="n">
         <v>4</v>
       </c>
       <c r="BB23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC23" t="n">
         <v>1</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>6-5-2009-10</t>
+          <t>2010-06-05</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E24" t="n">
         <v>27</v>
       </c>
       <c r="F24" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G24" t="n">
-        <v>0.333</v>
+        <v>0.329</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4703,7 +4770,7 @@
         <v>0.343</v>
       </c>
       <c r="O24" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P24" t="n">
         <v>22</v>
@@ -4715,40 +4782,40 @@
         <v>11.5</v>
       </c>
       <c r="S24" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T24" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U24" t="n">
         <v>21</v>
       </c>
       <c r="V24" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W24" t="n">
         <v>8.1</v>
       </c>
       <c r="X24" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y24" t="n">
         <v>4</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA24" t="n">
         <v>18.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>97.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.8</v>
+        <v>-3.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
         <v>24</v>
@@ -4781,7 +4848,7 @@
         <v>22</v>
       </c>
       <c r="AO24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP24" t="n">
         <v>27</v>
@@ -4808,7 +4875,7 @@
         <v>5</v>
       </c>
       <c r="AX24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY24" t="n">
         <v>3</v>
@@ -4820,7 +4887,7 @@
         <v>30</v>
       </c>
       <c r="BB24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC24" t="n">
         <v>24</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>6-5-2009-10</t>
+          <t>2010-06-05</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E25" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25" t="n">
         <v>28</v>
       </c>
       <c r="G25" t="n">
-        <v>0.654</v>
+        <v>0.659</v>
       </c>
       <c r="H25" t="n">
         <v>48.1</v>
@@ -4879,7 +4946,7 @@
         <v>8.9</v>
       </c>
       <c r="M25" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="N25" t="n">
         <v>0.412</v>
@@ -4891,19 +4958,19 @@
         <v>25.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R25" t="n">
         <v>11.1</v>
       </c>
       <c r="S25" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T25" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U25" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V25" t="n">
         <v>14.8</v>
@@ -4915,7 +4982,7 @@
         <v>5.1</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z25" t="n">
         <v>20.9</v>
@@ -4930,7 +4997,7 @@
         <v>4.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
         <v>5</v>
@@ -4963,10 +5030,10 @@
         <v>1</v>
       </c>
       <c r="AO25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ25" t="n">
         <v>11</v>
@@ -4975,7 +5042,7 @@
         <v>15</v>
       </c>
       <c r="AS25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AT25" t="n">
         <v>6</v>
@@ -4993,10 +5060,10 @@
         <v>12</v>
       </c>
       <c r="AY25" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA25" t="n">
         <v>7</v>
@@ -5005,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="BC25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>6-5-2009-10</t>
+          <t>2010-06-05</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E26" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F26" t="n">
         <v>32</v>
       </c>
       <c r="G26" t="n">
-        <v>0.605</v>
+        <v>0.61</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5058,13 +5125,13 @@
         <v>0.461</v>
       </c>
       <c r="L26" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M26" t="n">
         <v>16.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="O26" t="n">
         <v>19.6</v>
@@ -5073,34 +5140,34 @@
         <v>24.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.789</v>
+        <v>0.79</v>
       </c>
       <c r="R26" t="n">
         <v>11.1</v>
       </c>
       <c r="S26" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="T26" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="U26" t="n">
         <v>20.4</v>
       </c>
       <c r="V26" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="W26" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X26" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y26" t="n">
         <v>4.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA26" t="n">
         <v>21.5</v>
@@ -5109,10 +5176,10 @@
         <v>98.09999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
         <v>9</v>
@@ -5127,7 +5194,7 @@
         <v>10</v>
       </c>
       <c r="AI26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ26" t="n">
         <v>26</v>
@@ -5142,7 +5209,7 @@
         <v>19</v>
       </c>
       <c r="AN26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO26" t="n">
         <v>9</v>
@@ -5160,7 +5227,7 @@
         <v>28</v>
       </c>
       <c r="AT26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU26" t="n">
         <v>21</v>
@@ -5178,7 +5245,7 @@
         <v>4</v>
       </c>
       <c r="AZ26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA26" t="n">
         <v>9</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>6-5-2009-10</t>
+          <t>2010-06-05</t>
         </is>
       </c>
     </row>
@@ -5216,28 +5283,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E27" t="n">
         <v>25</v>
       </c>
       <c r="F27" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G27" t="n">
-        <v>0.309</v>
+        <v>0.305</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J27" t="n">
         <v>84.09999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L27" t="n">
         <v>5.9</v>
@@ -5246,7 +5313,7 @@
         <v>16.9</v>
       </c>
       <c r="N27" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="O27" t="n">
         <v>17.4</v>
@@ -5255,19 +5322,19 @@
         <v>24</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.725</v>
+        <v>0.726</v>
       </c>
       <c r="R27" t="n">
         <v>11.9</v>
       </c>
       <c r="S27" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="T27" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U27" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V27" t="n">
         <v>15</v>
@@ -5288,40 +5355,40 @@
         <v>20.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4.3</v>
+        <v>-4.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH27" t="n">
         <v>5</v>
       </c>
       <c r="AI27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ27" t="n">
         <v>5</v>
       </c>
       <c r="AK27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL27" t="n">
         <v>20</v>
       </c>
       <c r="AM27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN27" t="n">
         <v>16</v>
@@ -5330,7 +5397,7 @@
         <v>25</v>
       </c>
       <c r="AP27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ27" t="n">
         <v>28</v>
@@ -5348,10 +5415,10 @@
         <v>20</v>
       </c>
       <c r="AV27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX27" t="n">
         <v>23</v>
@@ -5363,7 +5430,7 @@
         <v>26</v>
       </c>
       <c r="BA27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB27" t="n">
         <v>18</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>6-5-2009-10</t>
+          <t>2010-06-05</t>
         </is>
       </c>
     </row>
@@ -5398,34 +5465,34 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E28" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" t="n">
         <v>32</v>
       </c>
       <c r="G28" t="n">
-        <v>0.605</v>
+        <v>0.61</v>
       </c>
       <c r="H28" t="n">
         <v>48.2</v>
       </c>
       <c r="I28" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J28" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.472</v>
+        <v>0.473</v>
       </c>
       <c r="L28" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M28" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="N28" t="n">
         <v>0.358</v>
@@ -5434,10 +5501,10 @@
         <v>17.8</v>
       </c>
       <c r="P28" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.741</v>
+        <v>0.74</v>
       </c>
       <c r="R28" t="n">
         <v>10.8</v>
@@ -5449,34 +5516,34 @@
         <v>42.8</v>
       </c>
       <c r="U28" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V28" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W28" t="n">
         <v>6.3</v>
       </c>
       <c r="X28" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y28" t="n">
         <v>5.1</v>
       </c>
       <c r="Z28" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA28" t="n">
         <v>20.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>101.2</v>
+        <v>101.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
         <v>9</v>
@@ -5488,10 +5555,10 @@
         <v>9</v>
       </c>
       <c r="AH28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI28" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AJ28" t="n">
         <v>18</v>
@@ -5512,13 +5579,13 @@
         <v>19</v>
       </c>
       <c r="AP28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS28" t="n">
         <v>5</v>
@@ -5527,7 +5594,7 @@
         <v>9</v>
       </c>
       <c r="AU28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV28" t="n">
         <v>10</v>
@@ -5536,7 +5603,7 @@
         <v>26</v>
       </c>
       <c r="AX28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AY28" t="n">
         <v>20</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>6-5-2009-10</t>
+          <t>2010-06-05</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E29" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F29" t="n">
         <v>42</v>
       </c>
       <c r="G29" t="n">
-        <v>0.481</v>
+        <v>0.488</v>
       </c>
       <c r="H29" t="n">
         <v>48.2</v>
       </c>
       <c r="I29" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J29" t="n">
         <v>80.90000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.483</v>
+        <v>0.482</v>
       </c>
       <c r="L29" t="n">
         <v>6.3</v>
@@ -5613,22 +5680,22 @@
         <v>0.371</v>
       </c>
       <c r="O29" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="P29" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="Q29" t="n">
         <v>0.764</v>
       </c>
       <c r="R29" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S29" t="n">
-        <v>30.4</v>
+        <v>30.6</v>
       </c>
       <c r="T29" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U29" t="n">
         <v>22</v>
@@ -5646,31 +5713,31 @@
         <v>4.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA29" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB29" t="n">
         <v>104.1</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1.9</v>
+        <v>-1.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI29" t="n">
         <v>5</v>
@@ -5691,10 +5758,10 @@
         <v>6</v>
       </c>
       <c r="AO29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP29" t="n">
         <v>8</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>9</v>
       </c>
       <c r="AQ29" t="n">
         <v>13</v>
@@ -5703,13 +5770,13 @@
         <v>26</v>
       </c>
       <c r="AS29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AT29" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AU29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV29" t="n">
         <v>7</v>
@@ -5718,13 +5785,13 @@
         <v>30</v>
       </c>
       <c r="AX29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY29" t="n">
         <v>8</v>
       </c>
       <c r="AZ29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA29" t="n">
         <v>13</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>6-5-2009-10</t>
+          <t>2010-06-05</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E30" t="n">
         <v>53</v>
       </c>
       <c r="F30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G30" t="n">
-        <v>0.654</v>
+        <v>0.646</v>
       </c>
       <c r="H30" t="n">
         <v>48.2</v>
@@ -5786,22 +5853,22 @@
         <v>0.491</v>
       </c>
       <c r="L30" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M30" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.362</v>
+        <v>0.364</v>
       </c>
       <c r="O30" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="P30" t="n">
         <v>27.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.739</v>
+        <v>0.741</v>
       </c>
       <c r="R30" t="n">
         <v>10.6</v>
@@ -5819,7 +5886,7 @@
         <v>15.2</v>
       </c>
       <c r="W30" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X30" t="n">
         <v>4.9</v>
@@ -5831,31 +5898,31 @@
         <v>22.7</v>
       </c>
       <c r="AA30" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AB30" t="n">
         <v>104.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH30" t="n">
         <v>25</v>
       </c>
       <c r="AI30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ30" t="n">
         <v>23</v>
@@ -5870,7 +5937,7 @@
         <v>25</v>
       </c>
       <c r="AN30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5879,7 +5946,7 @@
         <v>2</v>
       </c>
       <c r="AQ30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR30" t="n">
         <v>20</v>
@@ -5900,7 +5967,7 @@
         <v>4</v>
       </c>
       <c r="AX30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY30" t="n">
         <v>26</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>6-5-2009-10</t>
+          <t>2010-06-05</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F31" t="n">
         <v>56</v>
       </c>
       <c r="G31" t="n">
-        <v>0.309</v>
+        <v>0.317</v>
       </c>
       <c r="H31" t="n">
         <v>48.4</v>
@@ -5971,7 +6038,7 @@
         <v>5.3</v>
       </c>
       <c r="M31" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="N31" t="n">
         <v>0.353</v>
@@ -5983,16 +6050,16 @@
         <v>23.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="R31" t="n">
         <v>11.8</v>
       </c>
       <c r="S31" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T31" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U31" t="n">
         <v>19</v>
@@ -6007,10 +6074,10 @@
         <v>5.1</v>
       </c>
       <c r="Y31" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA31" t="n">
         <v>20.5</v>
@@ -6019,19 +6086,19 @@
         <v>96.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>-5</v>
+        <v>-4.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH31" t="n">
         <v>12</v>
@@ -6043,7 +6110,7 @@
         <v>16</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL31" t="n">
         <v>24</v>
@@ -6052,7 +6119,7 @@
         <v>24</v>
       </c>
       <c r="AN31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO31" t="n">
         <v>23</v>
@@ -6064,19 +6131,19 @@
         <v>14</v>
       </c>
       <c r="AR31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS31" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU31" t="n">
         <v>27</v>
       </c>
       <c r="AV31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW31" t="n">
         <v>28</v>
@@ -6085,13 +6152,13 @@
         <v>11</v>
       </c>
       <c r="AY31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA31" t="n">
         <v>18</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>17</v>
       </c>
       <c r="BB31" t="n">
         <v>26</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>6-5-2009-10</t>
+          <t>2010-06-05</t>
         </is>
       </c>
     </row>
